--- a/data/predictions_datasets/brca_prediction_2021-10-11/56f04d9d/brca_preliminary_data_2021-10-11_descriptions.xlsx
+++ b/data/predictions_datasets/brca_prediction_2021-10-11/56f04d9d/brca_preliminary_data_2021-10-11_descriptions.xlsx
@@ -58,10 +58,10 @@
     <t>ELASPIC_COVERAGE</t>
   </si>
   <si>
-    <t>CancerMine_STATUS</t>
-  </si>
-  <si>
-    <t>CancerMine_STATUS (BRCA)</t>
+    <t>CGC_STATUS</t>
+  </si>
+  <si>
+    <t>CGC_STATUS (BRCA)</t>
   </si>
   <si>
     <t>UniProt protein representation.
@@ -125,10 +125,10 @@
 Note: We count only once if there are multiple occurrence of the same protein's mutations.</t>
   </si>
   <si>
-    <t>Represents if given gene is CancerMine gene list.</t>
-  </si>
-  <si>
-    <t>Represents if given gene is CancerMine (BRCA) gene list.</t>
+    <t>Represents if given gene is CGC gene list.</t>
+  </si>
+  <si>
+    <t>Represents if given gene is CGC (BRCA) gene list.</t>
   </si>
 </sst>
 </file>
